--- a/modelo_andres_datos_act.xlsx
+++ b/modelo_andres_datos_act.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Arkad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246611AC-6364-4E5D-8AD3-DA8647ACF41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7919FE2C-720E-4A0D-BE46-25831B13851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>pos</t>
   </si>
@@ -33,15 +33,18 @@
   <si>
     <t>acierto</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +57,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -63,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,16 +96,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -400,19 +425,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E583"/>
+  <dimension ref="A1:F583"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +451,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44564</v>
       </c>
@@ -442,8 +471,11 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44565</v>
       </c>
@@ -459,8 +491,11 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44566</v>
       </c>
@@ -476,8 +511,11 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44567</v>
       </c>
@@ -493,8 +531,11 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44568</v>
       </c>
@@ -510,8 +551,11 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44571</v>
       </c>
@@ -527,8 +571,11 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44572</v>
       </c>
@@ -544,8 +591,11 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44573</v>
       </c>
@@ -561,8 +611,11 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44574</v>
       </c>
@@ -578,8 +631,11 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="4">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44575</v>
       </c>
@@ -595,8 +651,11 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="4">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44579</v>
       </c>
@@ -612,8 +671,11 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="4">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44580</v>
       </c>
@@ -629,8 +691,11 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44581</v>
       </c>
@@ -646,8 +711,11 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="4">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44582</v>
       </c>
@@ -663,8 +731,11 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="4">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44585</v>
       </c>
@@ -680,8 +751,11 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44586</v>
       </c>
@@ -697,8 +771,11 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44587</v>
       </c>
@@ -714,8 +791,11 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="4">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44588</v>
       </c>
@@ -731,8 +811,11 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="4">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44589</v>
       </c>
@@ -748,8 +831,11 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="4">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44592</v>
       </c>
@@ -765,8 +851,11 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44593</v>
       </c>
@@ -782,8 +871,11 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44594</v>
       </c>
@@ -799,8 +891,11 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44595</v>
       </c>
@@ -816,8 +911,11 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="4">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44596</v>
       </c>
@@ -833,8 +931,11 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44599</v>
       </c>
@@ -850,8 +951,11 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44600</v>
       </c>
@@ -867,8 +971,11 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="4">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44601</v>
       </c>
@@ -884,8 +991,11 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="4">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44602</v>
       </c>
@@ -901,8 +1011,11 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44603</v>
       </c>
@@ -918,8 +1031,11 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="4">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44606</v>
       </c>
@@ -935,8 +1051,11 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44607</v>
       </c>
@@ -952,8 +1071,11 @@
       <c r="E32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="4">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44608</v>
       </c>
@@ -969,8 +1091,11 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="4">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44609</v>
       </c>
@@ -986,8 +1111,11 @@
       <c r="E34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="4">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44610</v>
       </c>
@@ -1003,8 +1131,11 @@
       <c r="E35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="4">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44614</v>
       </c>
@@ -1020,8 +1151,11 @@
       <c r="E36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="4">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44615</v>
       </c>
@@ -1037,8 +1171,11 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="4">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44616</v>
       </c>
@@ -1054,8 +1191,11 @@
       <c r="E38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="4">
+        <v>44616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44617</v>
       </c>
@@ -1071,8 +1211,11 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="4">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44620</v>
       </c>
@@ -1088,8 +1231,11 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="4">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44621</v>
       </c>
@@ -1105,8 +1251,11 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="4">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44622</v>
       </c>
@@ -1122,8 +1271,11 @@
       <c r="E42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="4">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44623</v>
       </c>
@@ -1139,8 +1291,11 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="4">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44624</v>
       </c>
@@ -1156,8 +1311,11 @@
       <c r="E44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="4">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44627</v>
       </c>
@@ -1173,8 +1331,11 @@
       <c r="E45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="4">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44628</v>
       </c>
@@ -1190,8 +1351,11 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="4">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44629</v>
       </c>
@@ -1207,8 +1371,11 @@
       <c r="E47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="4">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44630</v>
       </c>
@@ -1224,8 +1391,11 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="4">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44631</v>
       </c>
@@ -1241,8 +1411,11 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="4">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44634</v>
       </c>
@@ -1258,8 +1431,11 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="4">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44635</v>
       </c>
@@ -1275,8 +1451,11 @@
       <c r="E51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="4">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44636</v>
       </c>
@@ -1292,8 +1471,11 @@
       <c r="E52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="4">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44637</v>
       </c>
@@ -1309,8 +1491,11 @@
       <c r="E53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="4">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44638</v>
       </c>
@@ -1326,8 +1511,11 @@
       <c r="E54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="4">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44641</v>
       </c>
@@ -1343,8 +1531,11 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="4">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44642</v>
       </c>
@@ -1360,8 +1551,11 @@
       <c r="E56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="4">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44643</v>
       </c>
@@ -1377,8 +1571,11 @@
       <c r="E57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="4">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44644</v>
       </c>
@@ -1394,8 +1591,11 @@
       <c r="E58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="4">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44645</v>
       </c>
@@ -1411,8 +1611,11 @@
       <c r="E59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="4">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44648</v>
       </c>
@@ -1428,8 +1631,11 @@
       <c r="E60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="4">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44649</v>
       </c>
@@ -1445,8 +1651,11 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="4">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44650</v>
       </c>
@@ -1462,8 +1671,11 @@
       <c r="E62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="4">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44651</v>
       </c>
@@ -1479,8 +1691,11 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="4">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44652</v>
       </c>
@@ -1496,8 +1711,11 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="4">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44655</v>
       </c>
@@ -1513,8 +1731,11 @@
       <c r="E65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="4">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44656</v>
       </c>
@@ -1530,8 +1751,11 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="4">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44657</v>
       </c>
@@ -1547,8 +1771,11 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="4">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44658</v>
       </c>
@@ -1564,8 +1791,11 @@
       <c r="E68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="4">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44659</v>
       </c>
@@ -1581,8 +1811,11 @@
       <c r="E69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="4">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44662</v>
       </c>
@@ -1598,8 +1831,11 @@
       <c r="E70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="4">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44663</v>
       </c>
@@ -1615,8 +1851,11 @@
       <c r="E71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="4">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44664</v>
       </c>
@@ -1632,8 +1871,11 @@
       <c r="E72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="4">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44665</v>
       </c>
@@ -1649,8 +1891,11 @@
       <c r="E73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="4">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44669</v>
       </c>
@@ -1666,8 +1911,11 @@
       <c r="E74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="4">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44670</v>
       </c>
@@ -1683,8 +1931,11 @@
       <c r="E75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="4">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44671</v>
       </c>
@@ -1700,8 +1951,11 @@
       <c r="E76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="4">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44672</v>
       </c>
@@ -1717,8 +1971,11 @@
       <c r="E77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="4">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44673</v>
       </c>
@@ -1734,8 +1991,11 @@
       <c r="E78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="4">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44676</v>
       </c>
@@ -1751,8 +2011,11 @@
       <c r="E79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="4">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44677</v>
       </c>
@@ -1768,8 +2031,11 @@
       <c r="E80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="4">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44678</v>
       </c>
@@ -1785,8 +2051,11 @@
       <c r="E81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="4">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44679</v>
       </c>
@@ -1802,8 +2071,11 @@
       <c r="E82" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="4">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44680</v>
       </c>
@@ -1819,8 +2091,11 @@
       <c r="E83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="4">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44683</v>
       </c>
@@ -1836,8 +2111,11 @@
       <c r="E84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="4">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44684</v>
       </c>
@@ -1853,8 +2131,11 @@
       <c r="E85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="4">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44685</v>
       </c>
@@ -1870,8 +2151,11 @@
       <c r="E86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="4">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44686</v>
       </c>
@@ -1887,8 +2171,11 @@
       <c r="E87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="4">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44687</v>
       </c>
@@ -1904,8 +2191,11 @@
       <c r="E88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44690</v>
       </c>
@@ -1921,8 +2211,11 @@
       <c r="E89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="4">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44691</v>
       </c>
@@ -1938,8 +2231,11 @@
       <c r="E90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="4">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44692</v>
       </c>
@@ -1955,8 +2251,11 @@
       <c r="E91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="4">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44693</v>
       </c>
@@ -1972,8 +2271,11 @@
       <c r="E92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="4">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44694</v>
       </c>
@@ -1989,8 +2291,11 @@
       <c r="E93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="4">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44697</v>
       </c>
@@ -2006,8 +2311,11 @@
       <c r="E94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="4">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44698</v>
       </c>
@@ -2023,8 +2331,11 @@
       <c r="E95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="4">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44699</v>
       </c>
@@ -2040,8 +2351,11 @@
       <c r="E96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="4">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44700</v>
       </c>
@@ -2057,8 +2371,11 @@
       <c r="E97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="4">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44701</v>
       </c>
@@ -2074,8 +2391,11 @@
       <c r="E98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="4">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44704</v>
       </c>
@@ -2091,8 +2411,11 @@
       <c r="E99" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="4">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44705</v>
       </c>
@@ -2108,8 +2431,11 @@
       <c r="E100" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="4">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44706</v>
       </c>
@@ -2125,8 +2451,11 @@
       <c r="E101" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="4">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44707</v>
       </c>
@@ -2142,8 +2471,11 @@
       <c r="E102" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="4">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44708</v>
       </c>
@@ -2159,8 +2491,11 @@
       <c r="E103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="4">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44712</v>
       </c>
@@ -2176,8 +2511,11 @@
       <c r="E104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="4">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44713</v>
       </c>
@@ -2193,8 +2531,11 @@
       <c r="E105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="4">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44714</v>
       </c>
@@ -2210,8 +2551,11 @@
       <c r="E106" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="4">
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44715</v>
       </c>
@@ -2227,8 +2571,11 @@
       <c r="E107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44718</v>
       </c>
@@ -2244,8 +2591,11 @@
       <c r="E108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="4">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44719</v>
       </c>
@@ -2261,8 +2611,11 @@
       <c r="E109" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="4">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44720</v>
       </c>
@@ -2278,8 +2631,11 @@
       <c r="E110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="4">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44721</v>
       </c>
@@ -2295,8 +2651,11 @@
       <c r="E111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="4">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44722</v>
       </c>
@@ -2312,8 +2671,11 @@
       <c r="E112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44725</v>
       </c>
@@ -2329,8 +2691,11 @@
       <c r="E113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="4">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44726</v>
       </c>
@@ -2346,8 +2711,11 @@
       <c r="E114" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="4">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44727</v>
       </c>
@@ -2363,8 +2731,11 @@
       <c r="E115" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="4">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44728</v>
       </c>
@@ -2380,8 +2751,11 @@
       <c r="E116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="4">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44729</v>
       </c>
@@ -2397,8 +2771,11 @@
       <c r="E117" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44733</v>
       </c>
@@ -2414,8 +2791,11 @@
       <c r="E118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="4">
+        <v>44733</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44734</v>
       </c>
@@ -2431,8 +2811,11 @@
       <c r="E119" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="4">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44735</v>
       </c>
@@ -2448,8 +2831,11 @@
       <c r="E120" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="4">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44736</v>
       </c>
@@ -2465,8 +2851,11 @@
       <c r="E121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44739</v>
       </c>
@@ -2482,8 +2871,11 @@
       <c r="E122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="4">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44740</v>
       </c>
@@ -2499,8 +2891,11 @@
       <c r="E123" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="4">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44741</v>
       </c>
@@ -2516,8 +2911,11 @@
       <c r="E124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="4">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44742</v>
       </c>
@@ -2533,8 +2931,11 @@
       <c r="E125" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="4">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44743</v>
       </c>
@@ -2550,8 +2951,11 @@
       <c r="E126" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44747</v>
       </c>
@@ -2567,8 +2971,11 @@
       <c r="E127" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="4">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44748</v>
       </c>
@@ -2584,8 +2991,11 @@
       <c r="E128" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="4">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44749</v>
       </c>
@@ -2601,8 +3011,11 @@
       <c r="E129" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="4">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44750</v>
       </c>
@@ -2618,8 +3031,11 @@
       <c r="E130" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44753</v>
       </c>
@@ -2635,8 +3051,11 @@
       <c r="E131" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="4">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44754</v>
       </c>
@@ -2652,8 +3071,11 @@
       <c r="E132" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="4">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44755</v>
       </c>
@@ -2669,8 +3091,11 @@
       <c r="E133" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="4">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44756</v>
       </c>
@@ -2686,8 +3111,11 @@
       <c r="E134" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="4">
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44757</v>
       </c>
@@ -2703,8 +3131,11 @@
       <c r="E135" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44760</v>
       </c>
@@ -2720,8 +3151,11 @@
       <c r="E136" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="4">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44761</v>
       </c>
@@ -2737,8 +3171,11 @@
       <c r="E137" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="4">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44762</v>
       </c>
@@ -2754,8 +3191,11 @@
       <c r="E138" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="4">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44763</v>
       </c>
@@ -2771,8 +3211,11 @@
       <c r="E139" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="4">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44764</v>
       </c>
@@ -2788,8 +3231,11 @@
       <c r="E140" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>44767</v>
       </c>
@@ -2805,8 +3251,11 @@
       <c r="E141" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="4">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>44768</v>
       </c>
@@ -2822,8 +3271,11 @@
       <c r="E142" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="4">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>44769</v>
       </c>
@@ -2839,8 +3291,11 @@
       <c r="E143" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="4">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>44770</v>
       </c>
@@ -2856,8 +3311,11 @@
       <c r="E144" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="4">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>44771</v>
       </c>
@@ -2873,8 +3331,11 @@
       <c r="E145" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>44774</v>
       </c>
@@ -2890,8 +3351,11 @@
       <c r="E146" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>44775</v>
       </c>
@@ -2907,8 +3371,11 @@
       <c r="E147" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="4">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>44776</v>
       </c>
@@ -2924,8 +3391,11 @@
       <c r="E148" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="4">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>44777</v>
       </c>
@@ -2941,8 +3411,11 @@
       <c r="E149" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="4">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>44778</v>
       </c>
@@ -2958,8 +3431,11 @@
       <c r="E150" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>44781</v>
       </c>
@@ -2975,8 +3451,11 @@
       <c r="E151" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="4">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>44782</v>
       </c>
@@ -2992,8 +3471,11 @@
       <c r="E152" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="4">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>44783</v>
       </c>
@@ -3009,8 +3491,11 @@
       <c r="E153" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="4">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>44784</v>
       </c>
@@ -3026,8 +3511,11 @@
       <c r="E154" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="4">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>44785</v>
       </c>
@@ -3043,8 +3531,11 @@
       <c r="E155" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>44788</v>
       </c>
@@ -3060,8 +3551,11 @@
       <c r="E156" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="4">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44789</v>
       </c>
@@ -3077,8 +3571,11 @@
       <c r="E157" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="4">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>44790</v>
       </c>
@@ -3094,8 +3591,11 @@
       <c r="E158" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="4">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>44791</v>
       </c>
@@ -3111,8 +3611,11 @@
       <c r="E159" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="4">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>44792</v>
       </c>
@@ -3128,8 +3631,11 @@
       <c r="E160" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>44795</v>
       </c>
@@ -3145,8 +3651,11 @@
       <c r="E161" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="4">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>44796</v>
       </c>
@@ -3162,8 +3671,11 @@
       <c r="E162" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="4">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>44797</v>
       </c>
@@ -3179,8 +3691,11 @@
       <c r="E163" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="4">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>44798</v>
       </c>
@@ -3196,8 +3711,11 @@
       <c r="E164" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="4">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>44799</v>
       </c>
@@ -3213,8 +3731,11 @@
       <c r="E165" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="4">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>44802</v>
       </c>
@@ -3230,8 +3751,11 @@
       <c r="E166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="4">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>44803</v>
       </c>
@@ -3247,8 +3771,11 @@
       <c r="E167" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="4">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>44804</v>
       </c>
@@ -3264,8 +3791,11 @@
       <c r="E168" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="4">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>44805</v>
       </c>
@@ -3281,8 +3811,11 @@
       <c r="E169" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="4">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>44806</v>
       </c>
@@ -3298,8 +3831,11 @@
       <c r="E170" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" s="4">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>44810</v>
       </c>
@@ -3315,8 +3851,11 @@
       <c r="E171" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="4">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>44811</v>
       </c>
@@ -3332,8 +3871,11 @@
       <c r="E172" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="4">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>44812</v>
       </c>
@@ -3349,8 +3891,11 @@
       <c r="E173" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="4">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>44813</v>
       </c>
@@ -3366,8 +3911,11 @@
       <c r="E174" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="4">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>44816</v>
       </c>
@@ -3383,8 +3931,11 @@
       <c r="E175" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="4">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>44817</v>
       </c>
@@ -3400,8 +3951,11 @@
       <c r="E176" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="4">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>44818</v>
       </c>
@@ -3417,8 +3971,11 @@
       <c r="E177" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="4">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>44819</v>
       </c>
@@ -3434,8 +3991,11 @@
       <c r="E178" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" s="4">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>44820</v>
       </c>
@@ -3451,8 +4011,11 @@
       <c r="E179" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" s="4">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>44823</v>
       </c>
@@ -3468,8 +4031,11 @@
       <c r="E180" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" s="4">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>44824</v>
       </c>
@@ -3485,8 +4051,11 @@
       <c r="E181" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="4">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>44825</v>
       </c>
@@ -3502,8 +4071,11 @@
       <c r="E182" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" s="4">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>44826</v>
       </c>
@@ -3519,8 +4091,11 @@
       <c r="E183" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" s="4">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>44827</v>
       </c>
@@ -3536,8 +4111,11 @@
       <c r="E184" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="4">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>44830</v>
       </c>
@@ -3553,8 +4131,11 @@
       <c r="E185" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" s="4">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>44831</v>
       </c>
@@ -3570,8 +4151,11 @@
       <c r="E186" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="4">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>44832</v>
       </c>
@@ -3587,8 +4171,11 @@
       <c r="E187" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="4">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>44833</v>
       </c>
@@ -3604,8 +4191,11 @@
       <c r="E188" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" s="4">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>44834</v>
       </c>
@@ -3621,8 +4211,11 @@
       <c r="E189" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" s="4">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>44837</v>
       </c>
@@ -3638,8 +4231,11 @@
       <c r="E190" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="4">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>44838</v>
       </c>
@@ -3655,8 +4251,11 @@
       <c r="E191" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" s="4">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>44839</v>
       </c>
@@ -3672,8 +4271,11 @@
       <c r="E192" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="4">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>44840</v>
       </c>
@@ -3689,8 +4291,11 @@
       <c r="E193" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="4">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>44841</v>
       </c>
@@ -3706,8 +4311,11 @@
       <c r="E194" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="4">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>44844</v>
       </c>
@@ -3723,8 +4331,11 @@
       <c r="E195" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" s="4">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>44845</v>
       </c>
@@ -3740,8 +4351,11 @@
       <c r="E196" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="4">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>44846</v>
       </c>
@@ -3757,8 +4371,11 @@
       <c r="E197" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="4">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>44847</v>
       </c>
@@ -3774,8 +4391,11 @@
       <c r="E198" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="4">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>44848</v>
       </c>
@@ -3791,8 +4411,11 @@
       <c r="E199" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="4">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>44851</v>
       </c>
@@ -3808,8 +4431,11 @@
       <c r="E200" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" s="4">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>44852</v>
       </c>
@@ -3825,8 +4451,11 @@
       <c r="E201" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" s="4">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>44853</v>
       </c>
@@ -3842,8 +4471,11 @@
       <c r="E202" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" s="4">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>44854</v>
       </c>
@@ -3859,8 +4491,11 @@
       <c r="E203" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" s="4">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>44855</v>
       </c>
@@ -3876,8 +4511,11 @@
       <c r="E204" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" s="4">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>44858</v>
       </c>
@@ -3893,8 +4531,11 @@
       <c r="E205" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" s="4">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>44859</v>
       </c>
@@ -3910,8 +4551,11 @@
       <c r="E206" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206" s="4">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>44860</v>
       </c>
@@ -3927,8 +4571,11 @@
       <c r="E207" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207" s="4">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>44861</v>
       </c>
@@ -3944,8 +4591,11 @@
       <c r="E208" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" s="4">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>44862</v>
       </c>
@@ -3961,8 +4611,11 @@
       <c r="E209" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" s="4">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>44865</v>
       </c>
@@ -3978,8 +4631,11 @@
       <c r="E210" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" s="4">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>44866</v>
       </c>
@@ -3995,8 +4651,11 @@
       <c r="E211" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>44867</v>
       </c>
@@ -4012,8 +4671,11 @@
       <c r="E212" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" s="4">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>44868</v>
       </c>
@@ -4029,8 +4691,11 @@
       <c r="E213" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" s="4">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>44869</v>
       </c>
@@ -4046,8 +4711,11 @@
       <c r="E214" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" s="4">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>44872</v>
       </c>
@@ -4063,8 +4731,11 @@
       <c r="E215" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" s="4">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>44873</v>
       </c>
@@ -4080,8 +4751,11 @@
       <c r="E216" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" s="4">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>44874</v>
       </c>
@@ -4097,8 +4771,11 @@
       <c r="E217" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" s="4">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>44875</v>
       </c>
@@ -4114,8 +4791,11 @@
       <c r="E218" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" s="4">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>44876</v>
       </c>
@@ -4131,8 +4811,11 @@
       <c r="E219" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" s="4">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>44879</v>
       </c>
@@ -4148,8 +4831,11 @@
       <c r="E220" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" s="4">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>44880</v>
       </c>
@@ -4165,8 +4851,11 @@
       <c r="E221" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" s="4">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>44881</v>
       </c>
@@ -4182,8 +4871,11 @@
       <c r="E222" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" s="4">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>44882</v>
       </c>
@@ -4199,8 +4891,11 @@
       <c r="E223" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" s="4">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>44883</v>
       </c>
@@ -4216,8 +4911,11 @@
       <c r="E224" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" s="4">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>44886</v>
       </c>
@@ -4233,8 +4931,11 @@
       <c r="E225" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" s="4">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>44887</v>
       </c>
@@ -4250,8 +4951,11 @@
       <c r="E226" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" s="4">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44888</v>
       </c>
@@ -4267,8 +4971,11 @@
       <c r="E227" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" s="4">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44890</v>
       </c>
@@ -4284,8 +4991,11 @@
       <c r="E228" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" s="4">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>44893</v>
       </c>
@@ -4301,8 +5011,11 @@
       <c r="E229" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" s="4">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44894</v>
       </c>
@@ -4318,8 +5031,11 @@
       <c r="E230" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" s="4">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44895</v>
       </c>
@@ -4335,8 +5051,11 @@
       <c r="E231" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" s="4">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44896</v>
       </c>
@@ -4352,8 +5071,11 @@
       <c r="E232" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" s="4">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44897</v>
       </c>
@@ -4369,8 +5091,11 @@
       <c r="E233" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" s="4">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44900</v>
       </c>
@@ -4386,8 +5111,11 @@
       <c r="E234" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" s="4">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44901</v>
       </c>
@@ -4403,8 +5131,11 @@
       <c r="E235" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" s="4">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44902</v>
       </c>
@@ -4420,8 +5151,11 @@
       <c r="E236" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" s="4">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44903</v>
       </c>
@@ -4437,8 +5171,11 @@
       <c r="E237" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" s="4">
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>44904</v>
       </c>
@@ -4454,8 +5191,11 @@
       <c r="E238" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" s="4">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>44907</v>
       </c>
@@ -4471,8 +5211,11 @@
       <c r="E239" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" s="4">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>44908</v>
       </c>
@@ -4488,8 +5231,11 @@
       <c r="E240" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" s="4">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>44909</v>
       </c>
@@ -4505,8 +5251,11 @@
       <c r="E241" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" s="4">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>44910</v>
       </c>
@@ -4522,8 +5271,11 @@
       <c r="E242" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" s="4">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>44911</v>
       </c>
@@ -4539,8 +5291,11 @@
       <c r="E243" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" s="4">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>44914</v>
       </c>
@@ -4556,8 +5311,11 @@
       <c r="E244" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" s="4">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>44915</v>
       </c>
@@ -4573,8 +5331,11 @@
       <c r="E245" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" s="4">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>44916</v>
       </c>
@@ -4590,8 +5351,11 @@
       <c r="E246" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" s="4">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>44917</v>
       </c>
@@ -4607,8 +5371,11 @@
       <c r="E247" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" s="4">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>44918</v>
       </c>
@@ -4624,8 +5391,11 @@
       <c r="E248" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" s="4">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>44922</v>
       </c>
@@ -4641,8 +5411,11 @@
       <c r="E249" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" s="4">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>44923</v>
       </c>
@@ -4658,8 +5431,11 @@
       <c r="E250" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" s="4">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>44924</v>
       </c>
@@ -4675,8 +5451,11 @@
       <c r="E251" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" s="4">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>44925</v>
       </c>
@@ -4692,8 +5471,11 @@
       <c r="E252" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" s="4">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>44929</v>
       </c>
@@ -4709,8 +5491,11 @@
       <c r="E253" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" s="4">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>44930</v>
       </c>
@@ -4726,8 +5511,11 @@
       <c r="E254" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" s="4">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>44931</v>
       </c>
@@ -4743,8 +5531,11 @@
       <c r="E255" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" s="4">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>44932</v>
       </c>
@@ -4760,8 +5551,11 @@
       <c r="E256" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" s="4">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>44935</v>
       </c>
@@ -4777,8 +5571,11 @@
       <c r="E257" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" s="4">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>44936</v>
       </c>
@@ -4794,8 +5591,11 @@
       <c r="E258" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258" s="4">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>44937</v>
       </c>
@@ -4811,8 +5611,11 @@
       <c r="E259" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259" s="4">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>44938</v>
       </c>
@@ -4828,8 +5631,11 @@
       <c r="E260" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" s="4">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>44939</v>
       </c>
@@ -4845,8 +5651,11 @@
       <c r="E261" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" s="4">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>44943</v>
       </c>
@@ -4862,8 +5671,11 @@
       <c r="E262" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262" s="4">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>44944</v>
       </c>
@@ -4879,8 +5691,11 @@
       <c r="E263" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263" s="4">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>44945</v>
       </c>
@@ -4896,8 +5711,11 @@
       <c r="E264" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" s="4">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>44946</v>
       </c>
@@ -4913,8 +5731,11 @@
       <c r="E265" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" s="4">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>44949</v>
       </c>
@@ -4930,8 +5751,11 @@
       <c r="E266" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266" s="4">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>44950</v>
       </c>
@@ -4947,8 +5771,11 @@
       <c r="E267" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267" s="4">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>44951</v>
       </c>
@@ -4964,8 +5791,11 @@
       <c r="E268" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" s="4">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>44952</v>
       </c>
@@ -4981,8 +5811,11 @@
       <c r="E269" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" s="4">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>44953</v>
       </c>
@@ -4998,8 +5831,11 @@
       <c r="E270" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270" s="4">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>44956</v>
       </c>
@@ -5015,8 +5851,11 @@
       <c r="E271" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271" s="4">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>44957</v>
       </c>
@@ -5032,8 +5871,11 @@
       <c r="E272" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" s="4">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>44958</v>
       </c>
@@ -5049,8 +5891,11 @@
       <c r="E273" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>44959</v>
       </c>
@@ -5066,8 +5911,11 @@
       <c r="E274" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" s="4">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>44960</v>
       </c>
@@ -5083,8 +5931,11 @@
       <c r="E275" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" s="4">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>44963</v>
       </c>
@@ -5100,8 +5951,11 @@
       <c r="E276" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" s="4">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>44964</v>
       </c>
@@ -5117,8 +5971,11 @@
       <c r="E277" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" s="4">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>44965</v>
       </c>
@@ -5134,8 +5991,11 @@
       <c r="E278" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" s="4">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>44966</v>
       </c>
@@ -5151,8 +6011,11 @@
       <c r="E279" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" s="4">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>44967</v>
       </c>
@@ -5168,8 +6031,11 @@
       <c r="E280" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" s="4">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>44970</v>
       </c>
@@ -5185,8 +6051,11 @@
       <c r="E281" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" s="4">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>44971</v>
       </c>
@@ -5202,8 +6071,11 @@
       <c r="E282" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" s="4">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>44972</v>
       </c>
@@ -5219,8 +6091,11 @@
       <c r="E283" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>44973</v>
       </c>
@@ -5236,8 +6111,11 @@
       <c r="E284" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284" s="4">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>44974</v>
       </c>
@@ -5253,8 +6131,11 @@
       <c r="E285" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285" s="4">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>44978</v>
       </c>
@@ -5270,8 +6151,11 @@
       <c r="E286" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286" s="4">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>44979</v>
       </c>
@@ -5287,8 +6171,11 @@
       <c r="E287" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287" s="4">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>44980</v>
       </c>
@@ -5304,8 +6191,11 @@
       <c r="E288" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288" s="4">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>44981</v>
       </c>
@@ -5321,8 +6211,11 @@
       <c r="E289" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289" s="4">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>44984</v>
       </c>
@@ -5338,8 +6231,11 @@
       <c r="E290" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290" s="4">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>44985</v>
       </c>
@@ -5355,8 +6251,11 @@
       <c r="E291" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291" s="4">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>44986</v>
       </c>
@@ -5372,8 +6271,11 @@
       <c r="E292" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292" s="4">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>44987</v>
       </c>
@@ -5389,8 +6291,11 @@
       <c r="E293" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293" s="4">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>44988</v>
       </c>
@@ -5406,8 +6311,11 @@
       <c r="E294" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294" s="4">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>44991</v>
       </c>
@@ -5423,8 +6331,11 @@
       <c r="E295" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295" s="4">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>44992</v>
       </c>
@@ -5440,8 +6351,11 @@
       <c r="E296" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296" s="4">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>44993</v>
       </c>
@@ -5457,8 +6371,11 @@
       <c r="E297" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>44994</v>
       </c>
@@ -5474,8 +6391,11 @@
       <c r="E298" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>44995</v>
       </c>
@@ -5491,8 +6411,11 @@
       <c r="E299" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299" s="4">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>44998</v>
       </c>
@@ -5508,8 +6431,11 @@
       <c r="E300" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300" s="4">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>44999</v>
       </c>
@@ -5525,8 +6451,11 @@
       <c r="E301" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301" s="4">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>45000</v>
       </c>
@@ -5542,8 +6471,11 @@
       <c r="E302" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302" s="4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>45001</v>
       </c>
@@ -5559,8 +6491,11 @@
       <c r="E303" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303" s="4">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>45002</v>
       </c>
@@ -5576,8 +6511,11 @@
       <c r="E304" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304" s="4">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>45005</v>
       </c>
@@ -5593,8 +6531,11 @@
       <c r="E305" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305" s="4">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>45006</v>
       </c>
@@ -5610,8 +6551,11 @@
       <c r="E306" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306" s="4">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>45007</v>
       </c>
@@ -5627,8 +6571,11 @@
       <c r="E307" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307" s="4">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>45008</v>
       </c>
@@ -5644,8 +6591,11 @@
       <c r="E308" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308" s="4">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>45009</v>
       </c>
@@ -5661,8 +6611,11 @@
       <c r="E309" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309" s="4">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>45012</v>
       </c>
@@ -5678,8 +6631,11 @@
       <c r="E310" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F310" s="4">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>45013</v>
       </c>
@@ -5695,8 +6651,11 @@
       <c r="E311" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311" s="4">
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>45014</v>
       </c>
@@ -5712,8 +6671,11 @@
       <c r="E312" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312" s="4">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>45015</v>
       </c>
@@ -5729,8 +6691,11 @@
       <c r="E313" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313" s="4">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>45016</v>
       </c>
@@ -5746,8 +6711,11 @@
       <c r="E314" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314" s="4">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>45019</v>
       </c>
@@ -5763,8 +6731,11 @@
       <c r="E315" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315" s="4">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>45020</v>
       </c>
@@ -5780,8 +6751,11 @@
       <c r="E316" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F316" s="4">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>45021</v>
       </c>
@@ -5797,8 +6771,11 @@
       <c r="E317" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F317" s="4">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>45022</v>
       </c>
@@ -5814,8 +6791,11 @@
       <c r="E318" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F318" s="4">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>45026</v>
       </c>
@@ -5831,8 +6811,11 @@
       <c r="E319" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F319" s="4">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>45027</v>
       </c>
@@ -5848,8 +6831,11 @@
       <c r="E320" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F320" s="4">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>45028</v>
       </c>
@@ -5865,8 +6851,11 @@
       <c r="E321" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F321" s="4">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>45029</v>
       </c>
@@ -5882,8 +6871,11 @@
       <c r="E322" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F322" s="4">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>45030</v>
       </c>
@@ -5899,8 +6891,11 @@
       <c r="E323" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F323" s="4">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>45033</v>
       </c>
@@ -5916,8 +6911,11 @@
       <c r="E324" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F324" s="4">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>45034</v>
       </c>
@@ -5933,8 +6931,11 @@
       <c r="E325" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F325" s="4">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>45035</v>
       </c>
@@ -5950,8 +6951,11 @@
       <c r="E326" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F326" s="4">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>45036</v>
       </c>
@@ -5967,8 +6971,11 @@
       <c r="E327" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F327" s="4">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>45037</v>
       </c>
@@ -5984,8 +6991,11 @@
       <c r="E328" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F328" s="4">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>45040</v>
       </c>
@@ -6001,8 +7011,11 @@
       <c r="E329" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F329" s="4">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>45041</v>
       </c>
@@ -6018,8 +7031,11 @@
       <c r="E330" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F330" s="4">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>45042</v>
       </c>
@@ -6035,8 +7051,11 @@
       <c r="E331" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F331" s="4">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>45043</v>
       </c>
@@ -6052,8 +7071,11 @@
       <c r="E332" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F332" s="4">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>45044</v>
       </c>
@@ -6069,8 +7091,11 @@
       <c r="E333" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F333" s="4">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>45047</v>
       </c>
@@ -6086,8 +7111,11 @@
       <c r="E334" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F334" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>45048</v>
       </c>
@@ -6103,8 +7131,11 @@
       <c r="E335" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F335" s="4">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>45049</v>
       </c>
@@ -6120,8 +7151,11 @@
       <c r="E336" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F336" s="4">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>45050</v>
       </c>
@@ -6137,8 +7171,11 @@
       <c r="E337" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F337" s="4">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>45051</v>
       </c>
@@ -6154,8 +7191,11 @@
       <c r="E338" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F338" s="4">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>45054</v>
       </c>
@@ -6171,8 +7211,11 @@
       <c r="E339" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F339" s="4">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>45055</v>
       </c>
@@ -6188,8 +7231,11 @@
       <c r="E340" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F340" s="4">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>45056</v>
       </c>
@@ -6205,8 +7251,11 @@
       <c r="E341" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F341" s="4">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>45057</v>
       </c>
@@ -6222,8 +7271,11 @@
       <c r="E342" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F342" s="4">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>45058</v>
       </c>
@@ -6239,8 +7291,11 @@
       <c r="E343" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F343" s="4">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>45061</v>
       </c>
@@ -6256,8 +7311,11 @@
       <c r="E344" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F344" s="4">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>45062</v>
       </c>
@@ -6273,8 +7331,11 @@
       <c r="E345" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F345" s="4">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>45063</v>
       </c>
@@ -6290,8 +7351,11 @@
       <c r="E346" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F346" s="4">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>45064</v>
       </c>
@@ -6307,8 +7371,11 @@
       <c r="E347" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F347" s="4">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>45065</v>
       </c>
@@ -6324,8 +7391,11 @@
       <c r="E348" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F348" s="4">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>45068</v>
       </c>
@@ -6341,8 +7411,11 @@
       <c r="E349" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F349" s="4">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>45069</v>
       </c>
@@ -6358,8 +7431,11 @@
       <c r="E350" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F350" s="4">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>45070</v>
       </c>
@@ -6375,8 +7451,11 @@
       <c r="E351" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F351" s="4">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>45071</v>
       </c>
@@ -6392,8 +7471,11 @@
       <c r="E352" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F352" s="4">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>45072</v>
       </c>
@@ -6409,8 +7491,11 @@
       <c r="E353" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F353" s="4">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>45076</v>
       </c>
@@ -6426,8 +7511,11 @@
       <c r="E354" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F354" s="4">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>45077</v>
       </c>
@@ -6443,8 +7531,11 @@
       <c r="E355" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F355" s="4">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>45078</v>
       </c>
@@ -6460,8 +7551,11 @@
       <c r="E356" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F356" s="4">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>45079</v>
       </c>
@@ -6477,8 +7571,11 @@
       <c r="E357" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F357" s="4">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>45082</v>
       </c>
@@ -6494,8 +7591,11 @@
       <c r="E358" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F358" s="4">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>45083</v>
       </c>
@@ -6511,8 +7611,11 @@
       <c r="E359" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F359" s="4">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>45084</v>
       </c>
@@ -6528,8 +7631,11 @@
       <c r="E360" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F360" s="4">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>45085</v>
       </c>
@@ -6545,8 +7651,11 @@
       <c r="E361" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F361" s="4">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>45086</v>
       </c>
@@ -6562,8 +7671,11 @@
       <c r="E362" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F362" s="4">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>45089</v>
       </c>
@@ -6579,8 +7691,11 @@
       <c r="E363" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F363" s="4">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>45090</v>
       </c>
@@ -6596,8 +7711,11 @@
       <c r="E364" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F364" s="4">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>45091</v>
       </c>
@@ -6613,8 +7731,11 @@
       <c r="E365" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F365" s="4">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>45092</v>
       </c>
@@ -6630,8 +7751,11 @@
       <c r="E366" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F366" s="4">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>45093</v>
       </c>
@@ -6647,8 +7771,11 @@
       <c r="E367" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F367" s="4">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>45097</v>
       </c>
@@ -6664,8 +7791,11 @@
       <c r="E368" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F368" s="4">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>45098</v>
       </c>
@@ -6681,8 +7811,11 @@
       <c r="E369" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F369" s="4">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>45099</v>
       </c>
@@ -6698,8 +7831,11 @@
       <c r="E370" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F370" s="4">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>45100</v>
       </c>
@@ -6715,8 +7851,11 @@
       <c r="E371" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F371" s="4">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>45103</v>
       </c>
@@ -6732,8 +7871,11 @@
       <c r="E372" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F372" s="4">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>45104</v>
       </c>
@@ -6749,8 +7891,11 @@
       <c r="E373" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F373" s="4">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>45105</v>
       </c>
@@ -6766,8 +7911,11 @@
       <c r="E374" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F374" s="4">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>45106</v>
       </c>
@@ -6783,8 +7931,11 @@
       <c r="E375" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F375" s="4">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>45107</v>
       </c>
@@ -6800,8 +7951,11 @@
       <c r="E376" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F376" s="4">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>45110</v>
       </c>
@@ -6817,8 +7971,11 @@
       <c r="E377" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F377" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>45112</v>
       </c>
@@ -6834,8 +7991,11 @@
       <c r="E378" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F378" s="4">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>45113</v>
       </c>
@@ -6851,8 +8011,11 @@
       <c r="E379" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F379" s="4">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>45114</v>
       </c>
@@ -6868,8 +8031,11 @@
       <c r="E380" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F380" s="4">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>45117</v>
       </c>
@@ -6885,8 +8051,11 @@
       <c r="E381" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F381" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>45118</v>
       </c>
@@ -6902,8 +8071,11 @@
       <c r="E382" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F382" s="4">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>45119</v>
       </c>
@@ -6919,8 +8091,11 @@
       <c r="E383" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F383" s="4">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>45120</v>
       </c>
@@ -6936,8 +8111,11 @@
       <c r="E384" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F384" s="4">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>45121</v>
       </c>
@@ -6953,8 +8131,11 @@
       <c r="E385" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F385" s="4">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>45124</v>
       </c>
@@ -6970,8 +8151,11 @@
       <c r="E386" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F386" s="4">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>45125</v>
       </c>
@@ -6987,8 +8171,11 @@
       <c r="E387" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F387" s="4">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>45126</v>
       </c>
@@ -7004,8 +8191,11 @@
       <c r="E388" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F388" s="4">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>45127</v>
       </c>
@@ -7021,8 +8211,11 @@
       <c r="E389" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F389" s="4">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>45128</v>
       </c>
@@ -7038,8 +8231,11 @@
       <c r="E390" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F390" s="4">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>45131</v>
       </c>
@@ -7055,8 +8251,11 @@
       <c r="E391" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F391" s="4">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>45132</v>
       </c>
@@ -7072,8 +8271,11 @@
       <c r="E392" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F392" s="4">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>45133</v>
       </c>
@@ -7089,8 +8291,11 @@
       <c r="E393" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F393" s="4">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>45134</v>
       </c>
@@ -7106,8 +8311,11 @@
       <c r="E394" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F394" s="4">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>45135</v>
       </c>
@@ -7123,8 +8331,11 @@
       <c r="E395" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F395" s="4">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>45138</v>
       </c>
@@ -7140,8 +8351,11 @@
       <c r="E396" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F396" s="4">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>45139</v>
       </c>
@@ -7157,8 +8371,11 @@
       <c r="E397" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F397" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>45140</v>
       </c>
@@ -7174,8 +8391,11 @@
       <c r="E398" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F398" s="4">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>45141</v>
       </c>
@@ -7191,8 +8411,11 @@
       <c r="E399" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F399" s="4">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>45142</v>
       </c>
@@ -7208,8 +8431,11 @@
       <c r="E400" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F400" s="4">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>45145</v>
       </c>
@@ -7225,8 +8451,11 @@
       <c r="E401" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F401" s="4">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>45146</v>
       </c>
@@ -7242,8 +8471,11 @@
       <c r="E402" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F402" s="4">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>45147</v>
       </c>
@@ -7259,8 +8491,11 @@
       <c r="E403" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F403" s="4">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>45148</v>
       </c>
@@ -7276,8 +8511,11 @@
       <c r="E404" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F404" s="4">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>45149</v>
       </c>
@@ -7293,8 +8531,11 @@
       <c r="E405" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F405" s="4">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>45152</v>
       </c>
@@ -7310,8 +8551,11 @@
       <c r="E406" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F406" s="4">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>45153</v>
       </c>
@@ -7327,8 +8571,11 @@
       <c r="E407" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F407" s="4">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>45154</v>
       </c>
@@ -7344,8 +8591,11 @@
       <c r="E408" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F408" s="4">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>45155</v>
       </c>
@@ -7361,8 +8611,11 @@
       <c r="E409" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F409" s="4">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>45156</v>
       </c>
@@ -7378,8 +8631,11 @@
       <c r="E410" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F410" s="4">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>45159</v>
       </c>
@@ -7395,8 +8651,11 @@
       <c r="E411" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F411" s="4">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>45160</v>
       </c>
@@ -7412,8 +8671,11 @@
       <c r="E412" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F412" s="4">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>45161</v>
       </c>
@@ -7429,8 +8691,11 @@
       <c r="E413" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F413" s="4">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>45162</v>
       </c>
@@ -7446,8 +8711,11 @@
       <c r="E414" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F414" s="4">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>45163</v>
       </c>
@@ -7463,8 +8731,11 @@
       <c r="E415" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F415" s="4">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>45166</v>
       </c>
@@ -7480,8 +8751,11 @@
       <c r="E416" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F416" s="4">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>45167</v>
       </c>
@@ -7497,8 +8771,11 @@
       <c r="E417" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F417" s="4">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>45168</v>
       </c>
@@ -7514,8 +8791,11 @@
       <c r="E418" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F418" s="4">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>45169</v>
       </c>
@@ -7531,8 +8811,11 @@
       <c r="E419" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F419" s="4">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>45170</v>
       </c>
@@ -7548,8 +8831,11 @@
       <c r="E420" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F420" s="4">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>45174</v>
       </c>
@@ -7565,8 +8851,11 @@
       <c r="E421" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F421" s="4">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>45175</v>
       </c>
@@ -7582,8 +8871,11 @@
       <c r="E422" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F422" s="4">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>45176</v>
       </c>
@@ -7599,8 +8891,11 @@
       <c r="E423" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F423" s="4">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>45177</v>
       </c>
@@ -7616,8 +8911,11 @@
       <c r="E424" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F424" s="4">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>45180</v>
       </c>
@@ -7633,8 +8931,11 @@
       <c r="E425" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F425" s="4">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>45181</v>
       </c>
@@ -7650,8 +8951,11 @@
       <c r="E426" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F426" s="4">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>45182</v>
       </c>
@@ -7667,8 +8971,11 @@
       <c r="E427" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F427" s="4">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>45183</v>
       </c>
@@ -7684,8 +8991,11 @@
       <c r="E428" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F428" s="4">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>45184</v>
       </c>
@@ -7701,8 +9011,11 @@
       <c r="E429" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F429" s="4">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>45187</v>
       </c>
@@ -7718,8 +9031,11 @@
       <c r="E430" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F430" s="4">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>45188</v>
       </c>
@@ -7735,8 +9051,11 @@
       <c r="E431" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F431" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>45189</v>
       </c>
@@ -7752,8 +9071,11 @@
       <c r="E432" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F432" s="4">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>45190</v>
       </c>
@@ -7769,8 +9091,11 @@
       <c r="E433" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F433" s="4">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>45191</v>
       </c>
@@ -7786,8 +9111,11 @@
       <c r="E434" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F434" s="4">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>45194</v>
       </c>
@@ -7803,8 +9131,11 @@
       <c r="E435" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F435" s="4">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>45195</v>
       </c>
@@ -7820,8 +9151,11 @@
       <c r="E436" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F436" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>45196</v>
       </c>
@@ -7837,8 +9171,11 @@
       <c r="E437" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F437" s="4">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>45197</v>
       </c>
@@ -7854,8 +9191,11 @@
       <c r="E438" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F438" s="4">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>45198</v>
       </c>
@@ -7871,8 +9211,11 @@
       <c r="E439" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F439" s="4">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>45201</v>
       </c>
@@ -7888,8 +9231,11 @@
       <c r="E440" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F440" s="4">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>45202</v>
       </c>
@@ -7905,8 +9251,11 @@
       <c r="E441" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F441" s="4">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>45203</v>
       </c>
@@ -7922,8 +9271,11 @@
       <c r="E442" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F442" s="4">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>45204</v>
       </c>
@@ -7939,8 +9291,11 @@
       <c r="E443" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F443" s="4">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>45205</v>
       </c>
@@ -7956,8 +9311,11 @@
       <c r="E444" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F444" s="4">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>45208</v>
       </c>
@@ -7973,8 +9331,11 @@
       <c r="E445" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F445" s="4">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>45209</v>
       </c>
@@ -7990,8 +9351,11 @@
       <c r="E446" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F446" s="4">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>45210</v>
       </c>
@@ -8007,8 +9371,11 @@
       <c r="E447" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F447" s="4">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>45211</v>
       </c>
@@ -8024,8 +9391,11 @@
       <c r="E448" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F448" s="4">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>45212</v>
       </c>
@@ -8041,8 +9411,11 @@
       <c r="E449" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F449" s="4">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>45215</v>
       </c>
@@ -8058,8 +9431,11 @@
       <c r="E450" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F450" s="4">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>45216</v>
       </c>
@@ -8075,8 +9451,11 @@
       <c r="E451" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F451" s="4">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>45217</v>
       </c>
@@ -8092,8 +9471,11 @@
       <c r="E452" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F452" s="4">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>45218</v>
       </c>
@@ -8109,8 +9491,11 @@
       <c r="E453" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F453" s="4">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>45219</v>
       </c>
@@ -8126,8 +9511,11 @@
       <c r="E454" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F454" s="4">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>45222</v>
       </c>
@@ -8143,8 +9531,11 @@
       <c r="E455" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F455" s="4">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>45223</v>
       </c>
@@ -8160,8 +9551,11 @@
       <c r="E456" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F456" s="4">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>45224</v>
       </c>
@@ -8177,8 +9571,11 @@
       <c r="E457" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F457" s="4">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>45225</v>
       </c>
@@ -8194,8 +9591,11 @@
       <c r="E458" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F458" s="4">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>45226</v>
       </c>
@@ -8211,8 +9611,11 @@
       <c r="E459" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F459" s="4">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>45229</v>
       </c>
@@ -8228,8 +9631,11 @@
       <c r="E460" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F460" s="4">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>45230</v>
       </c>
@@ -8245,8 +9651,11 @@
       <c r="E461" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F461" s="4">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>45231</v>
       </c>
@@ -8262,8 +9671,11 @@
       <c r="E462" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F462" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>45232</v>
       </c>
@@ -8279,8 +9691,11 @@
       <c r="E463" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F463" s="4">
+        <v>45232</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>45233</v>
       </c>
@@ -8296,8 +9711,11 @@
       <c r="E464" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F464" s="4">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>45236</v>
       </c>
@@ -8313,8 +9731,11 @@
       <c r="E465" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F465" s="4">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>45237</v>
       </c>
@@ -8330,8 +9751,11 @@
       <c r="E466" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F466" s="4">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>45238</v>
       </c>
@@ -8347,8 +9771,11 @@
       <c r="E467" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F467" s="4">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>45239</v>
       </c>
@@ -8364,8 +9791,11 @@
       <c r="E468" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F468" s="4">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>45240</v>
       </c>
@@ -8381,8 +9811,11 @@
       <c r="E469" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F469" s="4">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>45243</v>
       </c>
@@ -8398,8 +9831,11 @@
       <c r="E470" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F470" s="4">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>45244</v>
       </c>
@@ -8415,8 +9851,11 @@
       <c r="E471" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F471" s="4">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>45245</v>
       </c>
@@ -8432,8 +9871,11 @@
       <c r="E472" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F472" s="4">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>45246</v>
       </c>
@@ -8449,8 +9891,11 @@
       <c r="E473" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F473" s="4">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>45247</v>
       </c>
@@ -8466,8 +9911,11 @@
       <c r="E474" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F474" s="4">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>45250</v>
       </c>
@@ -8483,8 +9931,11 @@
       <c r="E475" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F475" s="4">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>45251</v>
       </c>
@@ -8500,8 +9951,11 @@
       <c r="E476" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F476" s="4">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>45252</v>
       </c>
@@ -8517,8 +9971,11 @@
       <c r="E477" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F477" s="4">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>45254</v>
       </c>
@@ -8534,8 +9991,11 @@
       <c r="E478" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F478" s="4">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>45257</v>
       </c>
@@ -8551,8 +10011,11 @@
       <c r="E479" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F479" s="4">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>45258</v>
       </c>
@@ -8568,8 +10031,11 @@
       <c r="E480" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F480" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>45259</v>
       </c>
@@ -8585,8 +10051,11 @@
       <c r="E481" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F481" s="4">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>45260</v>
       </c>
@@ -8602,8 +10071,11 @@
       <c r="E482" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F482" s="4">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>45261</v>
       </c>
@@ -8619,8 +10091,11 @@
       <c r="E483" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F483" s="4">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>45264</v>
       </c>
@@ -8636,8 +10111,11 @@
       <c r="E484" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F484" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>45265</v>
       </c>
@@ -8653,8 +10131,11 @@
       <c r="E485" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F485" s="4">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>45266</v>
       </c>
@@ -8670,8 +10151,11 @@
       <c r="E486" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F486" s="4">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>45267</v>
       </c>
@@ -8687,8 +10171,11 @@
       <c r="E487" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F487" s="4">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>45268</v>
       </c>
@@ -8704,8 +10191,11 @@
       <c r="E488" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F488" s="4">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>45271</v>
       </c>
@@ -8721,8 +10211,11 @@
       <c r="E489" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F489" s="4">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>45272</v>
       </c>
@@ -8738,8 +10231,11 @@
       <c r="E490" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F490" s="4">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>45273</v>
       </c>
@@ -8755,8 +10251,11 @@
       <c r="E491" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F491" s="4">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>45274</v>
       </c>
@@ -8772,8 +10271,11 @@
       <c r="E492" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F492" s="4">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>45275</v>
       </c>
@@ -8789,8 +10291,11 @@
       <c r="E493" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F493" s="4">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>45278</v>
       </c>
@@ -8806,8 +10311,11 @@
       <c r="E494" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F494" s="4">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>45279</v>
       </c>
@@ -8823,8 +10331,11 @@
       <c r="E495" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F495" s="4">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>45280</v>
       </c>
@@ -8840,8 +10351,11 @@
       <c r="E496" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F496" s="4">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>45281</v>
       </c>
@@ -8857,8 +10371,11 @@
       <c r="E497" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F497" s="4">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>45282</v>
       </c>
@@ -8874,8 +10391,11 @@
       <c r="E498" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F498" s="4">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>45286</v>
       </c>
@@ -8891,8 +10411,11 @@
       <c r="E499" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F499" s="4">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>45287</v>
       </c>
@@ -8908,8 +10431,11 @@
       <c r="E500" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F500" s="4">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>45288</v>
       </c>
@@ -8925,8 +10451,11 @@
       <c r="E501" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F501" s="4">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>45289</v>
       </c>
@@ -8942,8 +10471,11 @@
       <c r="E502" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F502" s="4">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>45293</v>
       </c>
@@ -8959,8 +10491,11 @@
       <c r="E503" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F503" s="4">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>45294</v>
       </c>
@@ -8976,8 +10511,11 @@
       <c r="E504" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F504" s="4">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>45295</v>
       </c>
@@ -8993,8 +10531,11 @@
       <c r="E505" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F505" s="4">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>45296</v>
       </c>
@@ -9010,8 +10551,11 @@
       <c r="E506" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F506" s="4">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>45299</v>
       </c>
@@ -9027,8 +10571,11 @@
       <c r="E507" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F507" s="4">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>45300</v>
       </c>
@@ -9044,8 +10591,11 @@
       <c r="E508" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F508" s="4">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>45301</v>
       </c>
@@ -9061,8 +10611,11 @@
       <c r="E509" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F509" s="4">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>45302</v>
       </c>
@@ -9078,8 +10631,11 @@
       <c r="E510" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F510" s="4">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>45303</v>
       </c>
@@ -9095,8 +10651,11 @@
       <c r="E511" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F511" s="4">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>45307</v>
       </c>
@@ -9112,8 +10671,11 @@
       <c r="E512" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F512" s="4">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>45308</v>
       </c>
@@ -9129,8 +10691,11 @@
       <c r="E513" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F513" s="4">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>45309</v>
       </c>
@@ -9146,8 +10711,11 @@
       <c r="E514" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F514" s="4">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>45310</v>
       </c>
@@ -9163,8 +10731,11 @@
       <c r="E515" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F515" s="4">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>45313</v>
       </c>
@@ -9180,8 +10751,11 @@
       <c r="E516" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F516" s="4">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>45314</v>
       </c>
@@ -9197,8 +10771,11 @@
       <c r="E517" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F517" s="4">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>45315</v>
       </c>
@@ -9214,8 +10791,11 @@
       <c r="E518" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F518" s="4">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>45316</v>
       </c>
@@ -9231,8 +10811,11 @@
       <c r="E519" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F519" s="4">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>45317</v>
       </c>
@@ -9248,8 +10831,11 @@
       <c r="E520" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F520" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>45320</v>
       </c>
@@ -9265,8 +10851,11 @@
       <c r="E521" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F521" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>45321</v>
       </c>
@@ -9282,8 +10871,11 @@
       <c r="E522" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F522" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>45322</v>
       </c>
@@ -9299,8 +10891,11 @@
       <c r="E523" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F523" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>45323</v>
       </c>
@@ -9316,8 +10911,11 @@
       <c r="E524" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F524" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>45324</v>
       </c>
@@ -9333,8 +10931,11 @@
       <c r="E525" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F525" s="4">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>45327</v>
       </c>
@@ -9350,8 +10951,11 @@
       <c r="E526" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F526" s="4">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>45328</v>
       </c>
@@ -9367,8 +10971,11 @@
       <c r="E527" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F527" s="4">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>45329</v>
       </c>
@@ -9384,8 +10991,11 @@
       <c r="E528" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F528" s="4">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>45330</v>
       </c>
@@ -9401,8 +11011,11 @@
       <c r="E529" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F529" s="4">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>45331</v>
       </c>
@@ -9418,8 +11031,11 @@
       <c r="E530" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F530" s="4">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>45334</v>
       </c>
@@ -9435,8 +11051,11 @@
       <c r="E531" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F531" s="4">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>45335</v>
       </c>
@@ -9452,8 +11071,11 @@
       <c r="E532" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F532" s="4">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>45336</v>
       </c>
@@ -9469,8 +11091,11 @@
       <c r="E533" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F533" s="4">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>45337</v>
       </c>
@@ -9486,8 +11111,11 @@
       <c r="E534" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F534" s="4">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>45338</v>
       </c>
@@ -9503,8 +11131,11 @@
       <c r="E535" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F535" s="4">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>45342</v>
       </c>
@@ -9520,8 +11151,11 @@
       <c r="E536" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F536" s="4">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>45343</v>
       </c>
@@ -9537,8 +11171,11 @@
       <c r="E537" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F537" s="4">
+        <v>45343</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>45344</v>
       </c>
@@ -9554,8 +11191,11 @@
       <c r="E538" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F538" s="4">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>45345</v>
       </c>
@@ -9571,8 +11211,11 @@
       <c r="E539" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F539" s="4">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>45348</v>
       </c>
@@ -9588,8 +11231,11 @@
       <c r="E540" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F540" s="4">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>45349</v>
       </c>
@@ -9605,8 +11251,11 @@
       <c r="E541" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F541" s="4">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>45350</v>
       </c>
@@ -9622,8 +11271,11 @@
       <c r="E542" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F542" s="4">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>45351</v>
       </c>
@@ -9639,8 +11291,11 @@
       <c r="E543" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F543" s="4">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>45352</v>
       </c>
@@ -9656,8 +11311,11 @@
       <c r="E544" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F544" s="4">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>45355</v>
       </c>
@@ -9673,8 +11331,11 @@
       <c r="E545" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F545" s="4">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>45356</v>
       </c>
@@ -9690,8 +11351,11 @@
       <c r="E546" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F546" s="4">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>45357</v>
       </c>
@@ -9707,8 +11371,11 @@
       <c r="E547" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F547" s="4">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>45358</v>
       </c>
@@ -9724,8 +11391,11 @@
       <c r="E548" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F548" s="4">
+        <v>45358</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>45359</v>
       </c>
@@ -9741,8 +11411,11 @@
       <c r="E549" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F549" s="4">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>45362</v>
       </c>
@@ -9758,8 +11431,11 @@
       <c r="E550" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F550" s="4">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>45363</v>
       </c>
@@ -9775,8 +11451,11 @@
       <c r="E551" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F551" s="4">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>45364</v>
       </c>
@@ -9792,8 +11471,11 @@
       <c r="E552" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F552" s="4">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>45365</v>
       </c>
@@ -9809,8 +11491,11 @@
       <c r="E553" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F553" s="4">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>45366</v>
       </c>
@@ -9826,8 +11511,11 @@
       <c r="E554" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F554" s="4">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <v>45369</v>
       </c>
@@ -9843,8 +11531,11 @@
       <c r="E555" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F555" s="4">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <v>45370</v>
       </c>
@@ -9860,8 +11551,11 @@
       <c r="E556" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F556" s="4">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>45371</v>
       </c>
@@ -9877,8 +11571,11 @@
       <c r="E557" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F557" s="4">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>45372</v>
       </c>
@@ -9894,8 +11591,11 @@
       <c r="E558" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F558" s="4">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>45373</v>
       </c>
@@ -9911,8 +11611,11 @@
       <c r="E559" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F559" s="4">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>45376</v>
       </c>
@@ -9928,8 +11631,11 @@
       <c r="E560" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F560" s="4">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>45377</v>
       </c>
@@ -9945,8 +11651,11 @@
       <c r="E561" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F561" s="4">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>45378</v>
       </c>
@@ -9962,8 +11671,11 @@
       <c r="E562" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F562" s="4">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>45379</v>
       </c>
@@ -9979,8 +11691,11 @@
       <c r="E563" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F563" s="4">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>45383</v>
       </c>
@@ -9996,8 +11711,11 @@
       <c r="E564" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F564" s="4">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>45384</v>
       </c>
@@ -10013,8 +11731,11 @@
       <c r="E565" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F565" s="4">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>45385</v>
       </c>
@@ -10030,8 +11751,11 @@
       <c r="E566" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F566" s="4">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>45386</v>
       </c>
@@ -10047,8 +11771,11 @@
       <c r="E567" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F567" s="4">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <v>45387</v>
       </c>
@@ -10064,8 +11791,11 @@
       <c r="E568" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F568" s="4">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>45390</v>
       </c>
@@ -10081,8 +11811,11 @@
       <c r="E569" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F569" s="4">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>45391</v>
       </c>
@@ -10098,8 +11831,11 @@
       <c r="E570" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F570" s="4">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>45392</v>
       </c>
@@ -10115,8 +11851,11 @@
       <c r="E571" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F571" s="4">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>45393</v>
       </c>
@@ -10132,8 +11871,11 @@
       <c r="E572" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F572" s="4">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>45394</v>
       </c>
@@ -10149,8 +11891,11 @@
       <c r="E573" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F573" s="4">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>45397</v>
       </c>
@@ -10166,8 +11911,11 @@
       <c r="E574" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F574" s="4">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>45398</v>
       </c>
@@ -10183,8 +11931,11 @@
       <c r="E575" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F575" s="4">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>45399</v>
       </c>
@@ -10200,8 +11951,11 @@
       <c r="E576" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F576" s="4">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>45400</v>
       </c>
@@ -10217,8 +11971,11 @@
       <c r="E577" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F577" s="4">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>45401</v>
       </c>
@@ -10234,8 +11991,11 @@
       <c r="E578" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F578" s="4">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>45404</v>
       </c>
@@ -10251,8 +12011,11 @@
       <c r="E579" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F579" s="4">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>45405</v>
       </c>
@@ -10268,8 +12031,11 @@
       <c r="E580" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F580" s="4">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>45406</v>
       </c>
@@ -10285,8 +12051,11 @@
       <c r="E581" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F581" s="4">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>45407</v>
       </c>
@@ -10302,8 +12071,11 @@
       <c r="E582" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F582" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>45408</v>
       </c>
@@ -10318,6 +12090,9 @@
       </c>
       <c r="E583" t="b">
         <v>1</v>
+      </c>
+      <c r="F583" s="4">
+        <v>45408</v>
       </c>
     </row>
   </sheetData>
